--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam10-Epha3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam10-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.293558711122</v>
+        <v>48.78557366666666</v>
       </c>
       <c r="H2">
-        <v>41.293558711122</v>
+        <v>146.356721</v>
       </c>
       <c r="I2">
-        <v>0.3300192664903767</v>
+        <v>0.3597500064892136</v>
       </c>
       <c r="J2">
-        <v>0.3300192664903767</v>
+        <v>0.3597500064892135</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.8347313821402</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N2">
-        <v>45.8347313821402</v>
+        <v>138.752804</v>
       </c>
       <c r="O2">
-        <v>0.957434808969601</v>
+        <v>0.9569015955251317</v>
       </c>
       <c r="P2">
-        <v>0.957434808969601</v>
+        <v>0.9569015955251318</v>
       </c>
       <c r="Q2">
-        <v>1892.679171336913</v>
+        <v>2256.378380332854</v>
       </c>
       <c r="R2">
-        <v>1892.679171336913</v>
+        <v>20307.40542299568</v>
       </c>
       <c r="S2">
-        <v>0.3159719333685016</v>
+        <v>0.3442453551997049</v>
       </c>
       <c r="T2">
-        <v>0.3159719333685016</v>
+        <v>0.3442453551997049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.293558711122</v>
+        <v>48.78557366666666</v>
       </c>
       <c r="H3">
-        <v>41.293558711122</v>
+        <v>146.356721</v>
       </c>
       <c r="I3">
-        <v>0.3300192664903767</v>
+        <v>0.3597500064892136</v>
       </c>
       <c r="J3">
-        <v>0.3300192664903767</v>
+        <v>0.3597500064892135</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.03769915072073</v>
+        <v>0.01632333333333333</v>
       </c>
       <c r="N3">
-        <v>2.03769915072073</v>
+        <v>0.04897</v>
       </c>
       <c r="O3">
-        <v>0.04256519103039897</v>
+        <v>0.0003377190931065126</v>
       </c>
       <c r="P3">
-        <v>0.04256519103039897</v>
+        <v>0.0003377190931065127</v>
       </c>
       <c r="Q3">
-        <v>84.14384951588991</v>
+        <v>0.7963431808188888</v>
       </c>
       <c r="R3">
-        <v>84.14384951588991</v>
+        <v>7.167088627369999</v>
       </c>
       <c r="S3">
-        <v>0.01404733312187503</v>
+        <v>0.0001214944459365992</v>
       </c>
       <c r="T3">
-        <v>0.01404733312187503</v>
+        <v>0.0001214944459365992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.0847305884371</v>
+        <v>48.78557366666666</v>
       </c>
       <c r="H4">
-        <v>22.0847305884371</v>
+        <v>146.356721</v>
       </c>
       <c r="I4">
-        <v>0.176501779379711</v>
+        <v>0.3597500064892136</v>
       </c>
       <c r="J4">
-        <v>0.176501779379711</v>
+        <v>0.3597500064892135</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.8347313821402</v>
+        <v>2.066797333333333</v>
       </c>
       <c r="N4">
-        <v>45.8347313821402</v>
+        <v>6.200391999999999</v>
       </c>
       <c r="O4">
-        <v>0.957434808969601</v>
+        <v>0.04276068538176181</v>
       </c>
       <c r="P4">
-        <v>0.957434808969601</v>
+        <v>0.04276068538176181</v>
       </c>
       <c r="Q4">
-        <v>1012.247694167949</v>
+        <v>100.8298935594035</v>
       </c>
       <c r="R4">
-        <v>1012.247694167949</v>
+        <v>907.4690420346318</v>
       </c>
       <c r="S4">
-        <v>0.1689889474232082</v>
+        <v>0.01538315684357203</v>
       </c>
       <c r="T4">
-        <v>0.1689889474232082</v>
+        <v>0.01538315684357203</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.0847305884371</v>
+        <v>22.11880033333333</v>
       </c>
       <c r="H5">
-        <v>22.0847305884371</v>
+        <v>66.35640099999999</v>
       </c>
       <c r="I5">
-        <v>0.176501779379711</v>
+        <v>0.1631063850518409</v>
       </c>
       <c r="J5">
-        <v>0.176501779379711</v>
+        <v>0.1631063850518409</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.03769915072073</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N5">
-        <v>2.03769915072073</v>
+        <v>138.752804</v>
       </c>
       <c r="O5">
-        <v>0.04256519103039897</v>
+        <v>0.9569015955251317</v>
       </c>
       <c r="P5">
-        <v>0.04256519103039897</v>
+        <v>0.9569015955251318</v>
       </c>
       <c r="Q5">
-        <v>45.00203676395441</v>
+        <v>1023.015189122045</v>
       </c>
       <c r="R5">
-        <v>45.00203676395441</v>
+        <v>9207.136702098403</v>
       </c>
       <c r="S5">
-        <v>0.007512831956502731</v>
+        <v>0.1560767600964431</v>
       </c>
       <c r="T5">
-        <v>0.007512831956502731</v>
+        <v>0.1560767600964431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.645628190986</v>
+        <v>22.11880033333333</v>
       </c>
       <c r="H6">
-        <v>35.645628190986</v>
+        <v>66.35640099999999</v>
       </c>
       <c r="I6">
-        <v>0.2848808491288848</v>
+        <v>0.1631063850518409</v>
       </c>
       <c r="J6">
-        <v>0.2848808491288848</v>
+        <v>0.1631063850518409</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>45.8347313821402</v>
+        <v>0.01632333333333333</v>
       </c>
       <c r="N6">
-        <v>45.8347313821402</v>
+        <v>0.04897</v>
       </c>
       <c r="O6">
-        <v>0.957434808969601</v>
+        <v>0.0003377190931065126</v>
       </c>
       <c r="P6">
-        <v>0.957434808969601</v>
+        <v>0.0003377190931065127</v>
       </c>
       <c r="Q6">
-        <v>1633.807793081487</v>
+        <v>0.3610525507744444</v>
       </c>
       <c r="R6">
-        <v>1633.807793081487</v>
+        <v>3.24947295697</v>
       </c>
       <c r="S6">
-        <v>0.2727548413648115</v>
+        <v>5.508414043958937E-05</v>
       </c>
       <c r="T6">
-        <v>0.2727548413648115</v>
+        <v>5.508414043958938E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>35.645628190986</v>
+        <v>22.11880033333333</v>
       </c>
       <c r="H7">
-        <v>35.645628190986</v>
+        <v>66.35640099999999</v>
       </c>
       <c r="I7">
-        <v>0.2848808491288848</v>
+        <v>0.1631063850518409</v>
       </c>
       <c r="J7">
-        <v>0.2848808491288848</v>
+        <v>0.1631063850518409</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.03769915072073</v>
+        <v>2.066797333333333</v>
       </c>
       <c r="N7">
-        <v>2.03769915072073</v>
+        <v>6.200391999999999</v>
       </c>
       <c r="O7">
-        <v>0.04256519103039897</v>
+        <v>0.04276068538176181</v>
       </c>
       <c r="P7">
-        <v>0.04256519103039897</v>
+        <v>0.04276068538176181</v>
       </c>
       <c r="Q7">
-        <v>72.6350662916791</v>
+        <v>45.71507754546577</v>
       </c>
       <c r="R7">
-        <v>72.6350662916791</v>
+        <v>411.4356979091919</v>
       </c>
       <c r="S7">
-        <v>0.01212600776407325</v>
+        <v>0.006974540814958268</v>
       </c>
       <c r="T7">
-        <v>0.01212600776407325</v>
+        <v>0.006974540814958268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.1007734108757</v>
+        <v>38.55383266666667</v>
       </c>
       <c r="H8">
-        <v>26.1007734108757</v>
+        <v>115.661498</v>
       </c>
       <c r="I8">
-        <v>0.2085981050010276</v>
+        <v>0.2843000606446504</v>
       </c>
       <c r="J8">
-        <v>0.2085981050010276</v>
+        <v>0.2843000606446503</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.8347313821402</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N8">
-        <v>45.8347313821402</v>
+        <v>138.752804</v>
       </c>
       <c r="O8">
-        <v>0.957434808969601</v>
+        <v>0.9569015955251317</v>
       </c>
       <c r="P8">
-        <v>0.957434808969601</v>
+        <v>0.9569015955251318</v>
       </c>
       <c r="Q8">
-        <v>1196.321938153595</v>
+        <v>1783.150795815599</v>
       </c>
       <c r="R8">
-        <v>1196.321938153595</v>
+        <v>16048.35716234039</v>
       </c>
       <c r="S8">
-        <v>0.1997190868130796</v>
+        <v>0.2720471816387576</v>
       </c>
       <c r="T8">
-        <v>0.1997190868130796</v>
+        <v>0.2720471816387576</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>38.55383266666667</v>
+      </c>
+      <c r="H9">
+        <v>115.661498</v>
+      </c>
+      <c r="I9">
+        <v>0.2843000606446504</v>
+      </c>
+      <c r="J9">
+        <v>0.2843000606446503</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.01632333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.04897</v>
+      </c>
+      <c r="O9">
+        <v>0.0003377190931065126</v>
+      </c>
+      <c r="P9">
+        <v>0.0003377190931065127</v>
+      </c>
+      <c r="Q9">
+        <v>0.6293270618955555</v>
+      </c>
+      <c r="R9">
+        <v>5.663943557060001</v>
+      </c>
+      <c r="S9">
+        <v>9.601355865103785E-05</v>
+      </c>
+      <c r="T9">
+        <v>9.601355865103785E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>26.1007734108757</v>
-      </c>
-      <c r="H9">
-        <v>26.1007734108757</v>
-      </c>
-      <c r="I9">
-        <v>0.2085981050010276</v>
-      </c>
-      <c r="J9">
-        <v>0.2085981050010276</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.03769915072073</v>
-      </c>
-      <c r="N9">
-        <v>2.03769915072073</v>
-      </c>
-      <c r="O9">
-        <v>0.04256519103039897</v>
-      </c>
-      <c r="P9">
-        <v>0.04256519103039897</v>
-      </c>
-      <c r="Q9">
-        <v>53.18552381249562</v>
-      </c>
-      <c r="R9">
-        <v>53.18552381249562</v>
-      </c>
-      <c r="S9">
-        <v>0.008879018187947963</v>
-      </c>
-      <c r="T9">
-        <v>0.008879018187947963</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>38.55383266666667</v>
+      </c>
+      <c r="H10">
+        <v>115.661498</v>
+      </c>
+      <c r="I10">
+        <v>0.2843000606446504</v>
+      </c>
+      <c r="J10">
+        <v>0.2843000606446503</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.066797333333333</v>
+      </c>
+      <c r="N10">
+        <v>6.200391999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="P10">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="Q10">
+        <v>79.68295854524622</v>
+      </c>
+      <c r="R10">
+        <v>717.1466269072159</v>
+      </c>
+      <c r="S10">
+        <v>0.0121568654472417</v>
+      </c>
+      <c r="T10">
+        <v>0.01215686544724169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>26.15144666666667</v>
+      </c>
+      <c r="H11">
+        <v>78.45434</v>
+      </c>
+      <c r="I11">
+        <v>0.1928435478142953</v>
+      </c>
+      <c r="J11">
+        <v>0.1928435478142952</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.25093466666667</v>
+      </c>
+      <c r="N11">
+        <v>138.752804</v>
+      </c>
+      <c r="O11">
+        <v>0.9569015955251317</v>
+      </c>
+      <c r="P11">
+        <v>0.9569015955251318</v>
+      </c>
+      <c r="Q11">
+        <v>1209.528851218818</v>
+      </c>
+      <c r="R11">
+        <v>10885.75966096936</v>
+      </c>
+      <c r="S11">
+        <v>0.1845322985902262</v>
+      </c>
+      <c r="T11">
+        <v>0.1845322985902262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>26.15144666666667</v>
+      </c>
+      <c r="H12">
+        <v>78.45434</v>
+      </c>
+      <c r="I12">
+        <v>0.1928435478142953</v>
+      </c>
+      <c r="J12">
+        <v>0.1928435478142952</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.01632333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.04897</v>
+      </c>
+      <c r="O12">
+        <v>0.0003377190931065126</v>
+      </c>
+      <c r="P12">
+        <v>0.0003377190931065127</v>
+      </c>
+      <c r="Q12">
+        <v>0.4268787810888889</v>
+      </c>
+      <c r="R12">
+        <v>3.8419090298</v>
+      </c>
+      <c r="S12">
+        <v>6.512694807928621E-05</v>
+      </c>
+      <c r="T12">
+        <v>6.512694807928621E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>26.15144666666667</v>
+      </c>
+      <c r="H13">
+        <v>78.45434</v>
+      </c>
+      <c r="I13">
+        <v>0.1928435478142953</v>
+      </c>
+      <c r="J13">
+        <v>0.1928435478142952</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.066797333333333</v>
+      </c>
+      <c r="N13">
+        <v>6.200391999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="P13">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="Q13">
+        <v>54.04974023347555</v>
+      </c>
+      <c r="R13">
+        <v>486.4476621012799</v>
+      </c>
+      <c r="S13">
+        <v>0.008246122275989821</v>
+      </c>
+      <c r="T13">
+        <v>0.008246122275989819</v>
       </c>
     </row>
   </sheetData>
